--- a/01.데이터_수집/쿠팡상품정보.xlsx
+++ b/01.데이터_수집/쿠팡상품정보.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>이름</t>
+          <t>상품명</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,10 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>할인가</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>할인율</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>리뷰수</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>별점</t>
         </is>
@@ -468,12 +478,2262 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>398,000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>25%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,800,000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398,000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1,800,000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>398,000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>마이크로소프트 2022 서피스 프로9 노트북 13 + 키보드, 256GB, Graphite(노트북), Black(키보드), QI9-00032/8XA-00017, 코어i5, WIN11 Home, 16GB</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2,091,000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1,811,250</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>레노버 씽크패드 T570 15.6인치 인텔 6세대 Core-i7 RAM 16GB SSD 512GB+HDD 500GB 윈도우11설치 중고노트북, 블랙, 코어i7, 1TB, WIN11 Pro</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2,091,000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1,811,250</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, Free DOS, 15-fc0076AU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>439,000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>399,000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AT, WIN11 Pro, 8GB, 256GB, 펜티엄, 퓨어 화이트</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>439,000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>399,000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>마이크로소프트 2022 서피스 랩탑5 노트북 15, 512GB, RIP-00046, 코어i7, Black, 16GB, WIN11 Home</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2,479,000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2,107,150</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1,800,000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,345,500</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 16GB, 756GB, 코어i5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1,800,000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,345,500</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>레노버 씽크패드 E14 Gen2 2021년 12월 제조 14인치 IPS 인텔 11세대 Core-i5 RAM 16GB NVMe SSD탑재 윈도우 11설치 단기사용 중고 노트북, WIN11 Pro, 1TB, 코어i5, 블랙</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1,800,000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,345,500</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 16GB, 500GB, 코어i5, 그라파이트</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1,329,000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>939,000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1037</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>삼성전자 2022 갤럭시북 2 15.6, 256GB, 실버, NT550XED-K78AS, 코어i7, 16GB, WIN11 Home</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1,329,000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>939,000</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1037</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HP 2023 노트북 15, 내추럴 실버, 코어i5, 512GB, 16GB, WIN11 Home, HP 15-fd0096tu</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>869,000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>829,000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>삼성전자 노트북 플러스2 NT550XDA-K14AT(셀러론 39.6cm Win11Pro RAM 8GB NVMe 128GB 15.6 화이트), 화이트, 셀러론, WIN11 Pro, NT550XDA-K14A</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>569,000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>459,000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HP 2023 노트북 15, 네추럴 실버, 라이젠5, 512GB, 16GB, WIN11 Home, 15-fc0072AU</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>569,000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>459,000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>디클 클릭북 D14 프로, 화이트, 셀러론, 256GB, 8GB, WIN11 Home, i1410</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>569,000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>459,000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>삼성전자 갤럭시북2 NT550XEZ-A58A +Windows 포함 12세대 i5, 삼성 NT550XEZ-A58A, WIN11 Pro, 16GB, 512GB, 12세대 인텔 코어 i5, 실버&amp;그라파이트</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>569,000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>459,000</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>델 2022 Inspiron 15 3525, 카본 블랙, Inspiron 15 DN3525-WH02KR, 라이젠5 4세대, 256GB, 8GB, WIN11 Home</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>569,000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>459,000</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AY, WIN11 Pro, 8GB, 256GB, 펜티엄, 미스틱 그레이</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>569,000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>459,000</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>디클 클릭북 D14 프로, 256GB, 핑크, WIN11 Home, 셀러론, 8GB</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>569,000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>459,000</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HP 2023 14s 노트북 14, 256GB, Free DOS, dq5071TU, 스노우 화이트, 코어i5, 8GB</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>559,000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>489,000</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HP 2023 엔비 x360 노트북, Natural Silver Aluminum, 코어i5, 512GB, 16GB, WIN11 Home, ENVY x360 2-in-1 Laptop 15-ew0053TU</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>559,000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>489,000</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>레노버 2022 V15 G3 ABA, Iron Gray, 256GB, Free DOS, Lenovo V15 G3 ABA - 82TV0030KR_ram8g, 라이젠5, 8GB</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>559,000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>489,000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>에이수스 젠북 14, 폰더 블루, UX3402ZA-KM053W, 512GB, 코어i5, 16GB, WIN11 Home</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1,449,000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1,399,000</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LG 2022 울트라PC 15UD50Q-GX50K 15인치 인텔 i5 윈도우11, WIN11 Pro, 32GB, 2TB, 코어i5, 화이트</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1,639,000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1,079,000</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LG 울트라 PC 15UD50Q-GX50K + Win10 Pro / Win11 Pro 선택포함 / 12세대 i5, 24GB, 512GB, 12세대 인텔 코어 i5 1240P, 화이트</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1,639,000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,079,000</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>델 2022 Inspiron 14 7420 2-in-1 노트북, DN7420A-WH04KR, 512GB, 코어i7, 플래티넘 실버, 16GB, WIN11 Home</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1,639,000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1,079,000</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>디클 노트북 클릭북 D141+ 윈도우10 가벼운노트북, 화이트, D141, Atom Z8350, 64GB, 4GB, WIN10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>379,000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>258,500</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>레노버 2023 아이디어패드 슬림 3 15.6, ideapad Slim 3 15ABR8-82XM0039KR, Free DOS, 16GB, 256GB, 라이젠5, Arctic Grey</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>379,000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>258,500</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>아이뮤즈 스톰북 노트북 N4020 35.81cm, 화이트, 셀러론, 64GB, 4GB, Windows, StormBooK14</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>279,000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>233,050</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>레노버 2021 ThinkPad E15, 블랙, 라이젠5 4세대, 256GB, 8GB, WIN10 Home, 20YJ0004KR</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>809,000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>791,790</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>레노버 2022 ThinkPad E15 G4, 256GB, Black, 라이젠5, ThinkPad E15 G4 Barcelo 21ED004EKD, Free DOS, 8GB</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>649,000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>629,000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LG전자 2023 그램 16 베이직 인텔EVO 플랫폼 탑재 외장그래픽, 옵시디안 블랙, 코어i7, 512GB, 16GB, WIN11 Home, 16Z90R-EA7CK</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2,990,000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2,297,000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>델 2022 인스피론 15 3525, 512GB, Linux, 카본 블랙, 라이젠7, DN3525-UB05KR, 8GB</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2,990,000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2,297,000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>디클 클릭북 D14u + 오피스365 메탈 쿼드코어 14FHD 노트북 Win11, WIN11 Home, 실버, 128GB, Celeron N4120, i1406, 4GB</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>439,000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>318,500</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>사무용 노트북 렌탈 대여 임대 사무용 가정용 회사용 관공서용 대량렌탈가능, 사무용노트북, WIN11 Pro, 8GB, 128GB, 코어i5, 15일</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>439,000</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>318,500</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LG 15UB470 I5-6200/8G/SSD128G/HD520/15.6/WIN10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>439,000</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>318,500</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>삼성 사무용 인강 노트북 인텔 i5 i7 SSD장착 윈10 홈, NT370E, WIN10 Home, 16GB, 256GB, 코어i5 6세대, 블랙</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>439,000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>318,500</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>디클 2022 클릭북 D14U + 오피스365, i1406, WIN11 HOME, 4GB, 실버, 셀러론, 128GB</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>439,000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>318,500</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>레노버 2020 IdeaPad S150-11 PRO, 아이스 블루, 셀러론, 128GB, 4GB, Free DOS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>439,000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>318,500</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>삼성 노트북3 NT371B5J I5-4310M/8G/SSD256G/HD4600/15.6/WIN10</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>439,000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>318,500</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>아이뮤즈 스톰북 노트북 N4020 35.81cm WINDOW미포함 eMMC, 화이트, 셀러론, 64GB, 4GB, Free DOS, StormBooK14</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>269,000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>239,000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>아이뮤즈 스톰북 노트북 N4020 35.81cm, 화이트, 셀러론, 320GB, 4GB, Windows, StormBooK14</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>388,000</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>338,000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>베이직스 2023 베이직북S 10.1, 화이트, 셀러론, 128GB, 8GB, WIN11 Pro, BB1022FW</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>388,000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>338,000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>삼성 사무용 게이밍 노트북 롤 포토샵 윈10 pro 탑재 SSD i5 (NT371B5L), NT371B5L, 코어i5, 128GB, 8GB, WIN10 Pro</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>388,000</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>338,000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>삼성전자 2021 노트북 플러스2 15.6, 퓨어 화이트, 셀러론, NVMe128GB, 8GB, WIN10 Pro, NT550XDA-K14AW</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>629,000</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>459,000</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LG 울트라PC 15UB470 i5 16G 지포스940MX 15.6 윈도우10, WiIN10, 16GB, 512GB, 코어i5, 퓨어 화이트</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>549,000</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>425,000</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>A급중고/삼성/LG/HP I5 I7 리퍼 중고노트북 리퍼노트북 게이밍노트북 기본SSD장착 WIN10, 삼성 NT901X3L, WIN10 Pro, 8GB, 256GB, 코어i5, 실버</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>549,000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>425,000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>삼성노트북 사무용 게이밍 NT371B5L i5-6세대 16G램 SSD512G 지포스920M 15.6인치 윈도우10 무상보증1년, WIN10 Home, 블랙, 16GB, 512GB, 코어i5</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>405,900</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>369,000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>HP 2023 노트북 14s, 256GB, HP 14s-dq5074TU, 코어i5, Snow White, WIN11 Home, 8GB</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>679,000</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>639,000</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>아이뮤즈 2021 스톰북 15.6, 화이트, 셀러론, 64GB, 4GB, Free DOS, StormBooK5</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>319,000</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>278,930</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HP 2023 노트북 14, 블랙, 라이젠3, 256GB, 8GB, WIN11 Home, 14-em0061AU</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>319,000</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>278,930</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>레노버 2021 IdeaPad Slim3 15.6, 골드, 펜티엄 골드, 256GB, 4GB, Free DOS, PD256G</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>319,000</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>278,930</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>삼성 B급 NT901X3L i5 8G 256G Win10 중고노트북</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>319,000</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>278,930</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>삼성 사무용 게이밍 노트북 롤 포토샵 윈10 pro 탑재 SSD i5 (NT371B5L), NT371B5L, 코어i5, 512GB, 16GB, WIN10 Pro</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>319,000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>278,930</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>삼성전자 15.6인치 i5-4200/4G/128GB/윈10 노트북(NT371B5J) +무선마우스, NT371B5J, WIN10 Home, 8GB, 628GB, 코어i5</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>319,000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>278,930</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>삼성전자 2021 노트북 플러스2 15.6, 퓨어 화이트, 셀러론, NVMe128GB + SSD256GB, 8GB, WIN10 Pro, NT550XDA-K14AW</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>529,000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>498,000</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>삼성전자 갤럭시북2 NT550XEZ-A58A +Windows 포함 12세대 i5, 삼성 NT550XEZ-A58A, WIN11 Pro, 12GB, 256GB, 12세대 인텔 코어 i5, 실버&amp;그라파이트</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>529,000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>498,000</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>아이뮤즈 스톰북 노트북 N4020 35.81cm, 화이트, 셀러론, 192GB, 4GB, Windows, StormBooK14</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>338,000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>301,840</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>레노버 2023 아이디어패드 슬림 3 15ABR8, ARCTIC GREY, 라이젠7, 256GB, 16GB, Free DOS, 82XM0036KR</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>338,000</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>301,840</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>삼성 2021 노트북 플러스2 15.6, 미스틱 그레이, 셀러론, NVMe128GB + SSD256GB, 8GB, WIN10 Pro, NT550XDA-K14AG</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>649,000</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>498,000</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>A급중고/삼성/LG/HP I5 I7 리퍼 중고노트북 리퍼노트북 게이밍노트북 기본SSD장착 WIN10, 삼성 NT200B5C 지포스, WIN10 Pro, 8GB, 128GB, 코어i5, 블랙</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>649,000</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>498,000</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>삼성 사무용 인강 노트북 인텔 i5 i7 SSD장착 윈10 홈, NT370E, WIN10 Home, 16GB, 512GB, 코어i5 6세대, 블랙</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>649,000</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>498,000</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>LG 울트라 PC 15UD40Q-GX30K +Win10 Pro / Win11 Pro 선택포함, 16GB, 512GB, AMD RYZEN 5300U, 화이트</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>649,000</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>498,000</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>삼성전자 갤럭시북2 NT550XEZ-A58A +Windows 포함 12세대 i5, 삼성 NT550XEZ-A58A, WIN11 Pro, 16GB, 1TB, 12세대 인텔 코어 i5, 실버&amp;그라파이트</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>649,000</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>498,000</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>HP 2023 노트북 14s, Snow White, 코어i5, 256GB, 16GB, WIN11 Home, HP 14s-dq5074TU</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>727,900</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>687,050</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LG전자 울트라PC 15U470 i5-7200U 16G Win10, 16GB, 512GB, 코어i5, 화이트</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>455,000</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>415,000</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>삼성노트북 NT371B5L i5 SSD 인텔 HD 15.6 윈10 롤 게이밍, WIN10 Pro, 16GB, 512GB, 코어i5, 블랙</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>455,000</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>415,000</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>LG 울트라노트북 i5 6200U RAM 16GB SSD 1TB 윈10 15UB470, WIN10, 코어i5, 화이트</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>599,000</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>539,000</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>에이서 2020 Swift 3 14, 퍼플, 라이젠7 3세대, 256GB, 16GB, Linux, SF314-42 R7</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>899,000</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>870,200</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.0</t>
         </is>
       </c>
     </row>
